--- a/supp/Supplementary_oil_palm.xlsx
+++ b/supp/Supplementary_oil_palm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunhe\Desktop\pseudoDB_kaist\kaist_20251210\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunhe\Desktop\pseudoDB_kaist\github\supp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BE7E1C-B79E-4CAA-84A2-BBA1E1D77EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA79EF-695D-4380-B382-A8E87EDA54BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{84B5107F-1DA8-4765-9B09-9A07A74D73E3}"/>
+    <workbookView xWindow="30" yWindow="760" windowWidth="25570" windowHeight="10280" activeTab="1" xr2:uid="{84B5107F-1DA8-4765-9B09-9A07A74D73E3}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>African oil palm sample information</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,6 +128,78 @@
   </si>
   <si>
     <t>Eg29</t>
+  </si>
+  <si>
+    <t>ERR2004437</t>
+  </si>
+  <si>
+    <t>Eg04</t>
+  </si>
+  <si>
+    <t>ERR2004439</t>
+  </si>
+  <si>
+    <t>Eg06</t>
+  </si>
+  <si>
+    <t>ERR2004441</t>
+  </si>
+  <si>
+    <t>Eg08</t>
+  </si>
+  <si>
+    <t>ERR2004443</t>
+  </si>
+  <si>
+    <t>Eg10</t>
+  </si>
+  <si>
+    <t>ERR2004445</t>
+  </si>
+  <si>
+    <t>Eg12</t>
+  </si>
+  <si>
+    <t>ERR2004447</t>
+  </si>
+  <si>
+    <t>Eg14</t>
+  </si>
+  <si>
+    <t>ERR2004449</t>
+  </si>
+  <si>
+    <t>Eg16</t>
+  </si>
+  <si>
+    <t>ERR2004451</t>
+  </si>
+  <si>
+    <t>Eg18</t>
+  </si>
+  <si>
+    <t>ERR2004453</t>
+  </si>
+  <si>
+    <t>Eg24</t>
+  </si>
+  <si>
+    <t>ERR2004455</t>
+  </si>
+  <si>
+    <t>Eg26</t>
+  </si>
+  <si>
+    <t>ERR2004457</t>
+  </si>
+  <si>
+    <t>Eg28</t>
+  </si>
+  <si>
+    <t>ERR2004459</t>
+  </si>
+  <si>
+    <t>Eg30</t>
   </si>
 </sst>
 </file>
@@ -223,7 +295,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -677,7 +769,7 @@
   <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -711,10 +803,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -722,10 +814,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -733,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -744,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -755,10 +847,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -766,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -777,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -788,10 +880,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -799,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -810,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -821,10 +913,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -832,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1727,17 +1819,21 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B18">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  <conditionalFormatting sqref="B15:B18">
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B24">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B64">
     <cfRule type="duplicateValues" dxfId="9" priority="3"/>
     <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B64">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  <conditionalFormatting sqref="B3:B14">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1748,7 +1844,7 @@
   <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2799,16 +2895,16 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B18">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B24">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B64">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
